--- a/artfynd/A 64110-2025 artfynd.xlsx
+++ b/artfynd/A 64110-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130806125</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>130807523</v>
       </c>
       <c r="B3" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>130807513</v>
       </c>
       <c r="B4" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>130806161</v>
       </c>
       <c r="B5" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>130806143</v>
       </c>
       <c r="B6" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>130807263</v>
       </c>
       <c r="B7" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>130807391</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>130806878</v>
       </c>
       <c r="B9" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>130806196</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>130839116</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>130839125</v>
       </c>
       <c r="B12" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>130839368</v>
       </c>
       <c r="B13" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>130839206</v>
       </c>
       <c r="B14" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>130839483</v>
       </c>
       <c r="B15" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>130839512</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>130839325</v>
       </c>
       <c r="B17" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>130839361</v>
       </c>
       <c r="B18" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>130839096</v>
       </c>
       <c r="B19" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/artfynd/A 64110-2025 artfynd.xlsx
+++ b/artfynd/A 64110-2025 artfynd.xlsx
@@ -1359,10 +1359,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130806878</v>
+        <v>130806196</v>
       </c>
       <c r="B9" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,21 +1370,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>472144</v>
+        <v>472131</v>
       </c>
       <c r="R9" t="n">
-        <v>6864413</v>
+        <v>6864526</v>
       </c>
       <c r="S9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130806196</v>
+        <v>130806878</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,21 +1467,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>472131</v>
+        <v>472144</v>
       </c>
       <c r="R10" t="n">
-        <v>6864526</v>
+        <v>6864413</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>

--- a/artfynd/A 64110-2025 artfynd.xlsx
+++ b/artfynd/A 64110-2025 artfynd.xlsx
@@ -1359,10 +1359,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130806196</v>
+        <v>130806878</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,21 +1370,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>472131</v>
+        <v>472144</v>
       </c>
       <c r="R9" t="n">
-        <v>6864526</v>
+        <v>6864413</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130806878</v>
+        <v>130806196</v>
       </c>
       <c r="B10" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,21 +1467,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>472144</v>
+        <v>472131</v>
       </c>
       <c r="R10" t="n">
-        <v>6864413</v>
+        <v>6864526</v>
       </c>
       <c r="S10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>

--- a/artfynd/A 64110-2025 artfynd.xlsx
+++ b/artfynd/A 64110-2025 artfynd.xlsx
@@ -1747,10 +1747,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130839368</v>
+        <v>130839206</v>
       </c>
       <c r="B13" t="n">
-        <v>80349</v>
+        <v>80348</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1758,37 +1758,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
+          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>472174</v>
+        <v>472147</v>
       </c>
       <c r="R13" t="n">
-        <v>6864517</v>
+        <v>6864552</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130839206</v>
+        <v>130839368</v>
       </c>
       <c r="B14" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1855,37 +1855,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
+          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>472147</v>
+        <v>472174</v>
       </c>
       <c r="R14" t="n">
-        <v>6864552</v>
+        <v>6864517</v>
       </c>
       <c r="S14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>

--- a/artfynd/A 64110-2025 artfynd.xlsx
+++ b/artfynd/A 64110-2025 artfynd.xlsx
@@ -971,7 +971,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130806161</v>
+        <v>130806143</v>
       </c>
       <c r="B5" t="n">
         <v>80348</v>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>472150</v>
+        <v>472165</v>
       </c>
       <c r="R5" t="n">
-        <v>6864539</v>
+        <v>6864552</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130806143</v>
+        <v>130806161</v>
       </c>
       <c r="B6" t="n">
         <v>80348</v>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>472165</v>
+        <v>472150</v>
       </c>
       <c r="R6" t="n">
-        <v>6864552</v>
+        <v>6864539</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130806878</v>
+        <v>130806196</v>
       </c>
       <c r="B9" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,21 +1370,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>472144</v>
+        <v>472131</v>
       </c>
       <c r="R9" t="n">
-        <v>6864413</v>
+        <v>6864526</v>
       </c>
       <c r="S9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130806196</v>
+        <v>130806878</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,21 +1467,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>472131</v>
+        <v>472144</v>
       </c>
       <c r="R10" t="n">
-        <v>6864526</v>
+        <v>6864413</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130839361</v>
+        <v>130839096</v>
       </c>
       <c r="B18" t="n">
         <v>80348</v>
@@ -2263,17 +2263,17 @@
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
+          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>472176</v>
+        <v>472178</v>
       </c>
       <c r="R18" t="n">
-        <v>6864518</v>
+        <v>6864559</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130839096</v>
+        <v>130839361</v>
       </c>
       <c r="B19" t="n">
         <v>80348</v>
@@ -2360,17 +2360,17 @@
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
+          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>472178</v>
+        <v>472176</v>
       </c>
       <c r="R19" t="n">
-        <v>6864559</v>
+        <v>6864518</v>
       </c>
       <c r="S19" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>

--- a/artfynd/A 64110-2025 artfynd.xlsx
+++ b/artfynd/A 64110-2025 artfynd.xlsx
@@ -971,7 +971,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130806143</v>
+        <v>130806161</v>
       </c>
       <c r="B5" t="n">
         <v>80348</v>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>472165</v>
+        <v>472150</v>
       </c>
       <c r="R5" t="n">
-        <v>6864552</v>
+        <v>6864539</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130806161</v>
+        <v>130806143</v>
       </c>
       <c r="B6" t="n">
         <v>80348</v>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>472150</v>
+        <v>472165</v>
       </c>
       <c r="R6" t="n">
-        <v>6864539</v>
+        <v>6864552</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130806196</v>
+        <v>130806878</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1370,21 +1370,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>472131</v>
+        <v>472144</v>
       </c>
       <c r="R9" t="n">
-        <v>6864526</v>
+        <v>6864413</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130806878</v>
+        <v>130806196</v>
       </c>
       <c r="B10" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,21 +1467,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>472144</v>
+        <v>472131</v>
       </c>
       <c r="R10" t="n">
-        <v>6864413</v>
+        <v>6864526</v>
       </c>
       <c r="S10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1747,10 +1747,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130839206</v>
+        <v>130839368</v>
       </c>
       <c r="B13" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1758,37 +1758,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
+          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>472147</v>
+        <v>472174</v>
       </c>
       <c r="R13" t="n">
-        <v>6864552</v>
+        <v>6864517</v>
       </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130839368</v>
+        <v>130839206</v>
       </c>
       <c r="B14" t="n">
-        <v>80349</v>
+        <v>80348</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1855,37 +1855,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
+          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>472174</v>
+        <v>472147</v>
       </c>
       <c r="R14" t="n">
-        <v>6864517</v>
+        <v>6864552</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130839096</v>
+        <v>130839361</v>
       </c>
       <c r="B18" t="n">
         <v>80348</v>
@@ -2263,17 +2263,17 @@
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
+          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>472178</v>
+        <v>472176</v>
       </c>
       <c r="R18" t="n">
-        <v>6864559</v>
+        <v>6864518</v>
       </c>
       <c r="S18" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130839361</v>
+        <v>130839096</v>
       </c>
       <c r="B19" t="n">
         <v>80348</v>
@@ -2360,17 +2360,17 @@
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
+          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>472176</v>
+        <v>472178</v>
       </c>
       <c r="R19" t="n">
-        <v>6864518</v>
+        <v>6864559</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>

--- a/artfynd/A 64110-2025 artfynd.xlsx
+++ b/artfynd/A 64110-2025 artfynd.xlsx
@@ -1747,10 +1747,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130839368</v>
+        <v>130839206</v>
       </c>
       <c r="B13" t="n">
-        <v>80349</v>
+        <v>80348</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1758,37 +1758,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
+          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>472174</v>
+        <v>472147</v>
       </c>
       <c r="R13" t="n">
-        <v>6864517</v>
+        <v>6864552</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130839206</v>
+        <v>130839368</v>
       </c>
       <c r="B14" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1855,37 +1855,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
+          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>472147</v>
+        <v>472174</v>
       </c>
       <c r="R14" t="n">
-        <v>6864552</v>
+        <v>6864517</v>
       </c>
       <c r="S14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130839361</v>
+        <v>130839096</v>
       </c>
       <c r="B18" t="n">
         <v>80348</v>
@@ -2263,17 +2263,17 @@
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
+          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>472176</v>
+        <v>472178</v>
       </c>
       <c r="R18" t="n">
-        <v>6864518</v>
+        <v>6864559</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130839096</v>
+        <v>130839361</v>
       </c>
       <c r="B19" t="n">
         <v>80348</v>
@@ -2360,17 +2360,17 @@
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
+          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>472178</v>
+        <v>472176</v>
       </c>
       <c r="R19" t="n">
-        <v>6864559</v>
+        <v>6864518</v>
       </c>
       <c r="S19" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>

--- a/artfynd/A 64110-2025 artfynd.xlsx
+++ b/artfynd/A 64110-2025 artfynd.xlsx
@@ -1747,10 +1747,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130839206</v>
+        <v>130839368</v>
       </c>
       <c r="B13" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1758,37 +1758,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
+          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>472147</v>
+        <v>472174</v>
       </c>
       <c r="R13" t="n">
-        <v>6864552</v>
+        <v>6864517</v>
       </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130839368</v>
+        <v>130839206</v>
       </c>
       <c r="B14" t="n">
-        <v>80349</v>
+        <v>80348</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1855,37 +1855,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
+          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>472174</v>
+        <v>472147</v>
       </c>
       <c r="R14" t="n">
-        <v>6864517</v>
+        <v>6864552</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130839096</v>
+        <v>130839361</v>
       </c>
       <c r="B18" t="n">
         <v>80348</v>
@@ -2263,17 +2263,17 @@
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
+          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>472178</v>
+        <v>472176</v>
       </c>
       <c r="R18" t="n">
-        <v>6864559</v>
+        <v>6864518</v>
       </c>
       <c r="S18" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130839361</v>
+        <v>130839096</v>
       </c>
       <c r="B19" t="n">
         <v>80348</v>
@@ -2360,17 +2360,17 @@
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
+          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>472176</v>
+        <v>472178</v>
       </c>
       <c r="R19" t="n">
-        <v>6864518</v>
+        <v>6864559</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>

--- a/artfynd/A 64110-2025 artfynd.xlsx
+++ b/artfynd/A 64110-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130806125</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>130807523</v>
       </c>
       <c r="B3" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>130807513</v>
       </c>
       <c r="B4" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>130806161</v>
       </c>
       <c r="B5" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>130806143</v>
       </c>
       <c r="B6" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>130807263</v>
       </c>
       <c r="B7" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>130807391</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>130806878</v>
       </c>
       <c r="B9" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>130806196</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>130839116</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>130839125</v>
       </c>
       <c r="B12" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>130839368</v>
       </c>
       <c r="B13" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>130839206</v>
       </c>
       <c r="B14" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>130839483</v>
       </c>
       <c r="B15" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>130839512</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>130839325</v>
       </c>
       <c r="B17" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>130839361</v>
       </c>
       <c r="B18" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>130839096</v>
       </c>
       <c r="B19" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/artfynd/A 64110-2025 artfynd.xlsx
+++ b/artfynd/A 64110-2025 artfynd.xlsx
@@ -1747,10 +1747,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130839368</v>
+        <v>130839206</v>
       </c>
       <c r="B13" t="n">
-        <v>80350</v>
+        <v>80349</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1758,37 +1758,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
+          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>472174</v>
+        <v>472147</v>
       </c>
       <c r="R13" t="n">
-        <v>6864517</v>
+        <v>6864552</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130839206</v>
+        <v>130839368</v>
       </c>
       <c r="B14" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1855,37 +1855,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Öratjärnknallarna, Öratjärnknallarna, Hjd</t>
+          <t>Kristinehamnskojan, Kristinehamnskojan, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>472147</v>
+        <v>472174</v>
       </c>
       <c r="R14" t="n">
-        <v>6864552</v>
+        <v>6864517</v>
       </c>
       <c r="S14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
